--- a/dataset-2/2-with_data_augmentation/results/adasyn.xlsx
+++ b/dataset-2/2-with_data_augmentation/results/adasyn.xlsx
@@ -423,13 +423,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.7777777777777778</v>
+        <v>0.36</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="D2">
-        <v>0.8750000000000001</v>
+        <v>0.4556962025316456</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -437,13 +437,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.7777777777777778</v>
+        <v>0.9344262295081968</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.9827586206896551</v>
       </c>
       <c r="D3">
-        <v>0.8750000000000001</v>
+        <v>0.9579831932773109</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -451,13 +451,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.5384615384615384</v>
+        <v>0.8135593220338984</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="D4">
-        <v>0.7000000000000001</v>
+        <v>0.8205128205128206</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -465,13 +465,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="D5">
-        <v>0.8235294117647058</v>
+        <v>0.3764705882352941</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -479,13 +479,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.875</v>
+        <v>0.8813559322033898</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="D6">
-        <v>0.9333333333333333</v>
+        <v>0.888888888888889</v>
       </c>
     </row>
   </sheetData>

--- a/dataset-2/2-with_data_augmentation/results/adasyn.xlsx
+++ b/dataset-2/2-with_data_augmentation/results/adasyn.xlsx
@@ -479,13 +479,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.8813559322033898</v>
+        <v>0.4945054945054945</v>
       </c>
       <c r="C6">
-        <v>0.896551724137931</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="D6">
-        <v>0.888888888888889</v>
+        <v>0.6040268456375838</v>
       </c>
     </row>
   </sheetData>
